--- a/Hoja-patron-.xlsx
+++ b/Hoja-patron-.xlsx
@@ -8,11 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="marzo_13_2019" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="marzo_06_2019" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="marzo_01_2019" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="febrero_27_2019" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Hoja de registro BMS" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="marzo_16_2019_2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="marzo_13_2019" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="marzo_06_2019" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="marzo_01_2019" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="febrero_27_2019" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Hoja de registro BMS" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
   <si>
     <t xml:space="preserve">SISTEMA DE MONITORIZACIÓN DE MARIPOSAS</t>
   </si>
@@ -59,13 +60,10 @@
     <t xml:space="preserve">TEMPERATURA INICIAL / FINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">17,4/18</t>
-  </si>
-  <si>
     <t xml:space="preserve">VEL. DEL VIENTO INICIAL / FINAL </t>
   </si>
   <si>
-    <t xml:space="preserve">5/5</t>
+    <t xml:space="preserve">2/2</t>
   </si>
   <si>
     <t xml:space="preserve">DIRECCIÓN DEL VIENTO INICIAL / FINAL</t>
@@ -125,6 +123,9 @@
     <t xml:space="preserve">Satyrinae</t>
   </si>
   <si>
+    <t xml:space="preserve">Pararge aegeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Media de insolación</t>
   </si>
   <si>
@@ -137,6 +138,12 @@
     <t xml:space="preserve">Dia calido pero muy ventoso</t>
   </si>
   <si>
+    <t xml:space="preserve">17,4/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5</t>
+  </si>
+  <si>
     <t xml:space="preserve">12/15</t>
   </si>
   <si>
@@ -144,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">15/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/2</t>
   </si>
   <si>
     <t xml:space="preserve">SO/SO</t>
@@ -803,9 +807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
+      <xdr:colOff>675000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309960</xdr:rowOff>
+      <xdr:rowOff>309600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -815,7 +819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12470400" y="7102800"/>
-          <a:ext cx="350280" cy="336240"/>
+          <a:ext cx="349920" cy="335880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,9 +876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309960</xdr:rowOff>
+      <xdr:rowOff>309600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -884,7 +888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="7051320"/>
-          <a:ext cx="611640" cy="387720"/>
+          <a:ext cx="611280" cy="387360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -941,9 +945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696960</xdr:colOff>
+      <xdr:colOff>696600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -953,7 +957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="7068600"/>
-          <a:ext cx="2139480" cy="1131120"/>
+          <a:ext cx="2139120" cy="1130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,9 +995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330840</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1007,7 +1011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11101320" y="7142400"/>
-          <a:ext cx="1374840" cy="1007640"/>
+          <a:ext cx="1374480" cy="1007280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,9 +1032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>487440</xdr:colOff>
+      <xdr:colOff>487080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1040,7 +1044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="7057080"/>
-          <a:ext cx="2387160" cy="1131120"/>
+          <a:ext cx="2386800" cy="1130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,9 +1082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1512000</xdr:colOff>
+      <xdr:colOff>1511640</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,7 +1098,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="7157520"/>
-          <a:ext cx="1037160" cy="922320"/>
+          <a:ext cx="1036800" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,9 +1119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1127,7 +1131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5772240" y="7051320"/>
-          <a:ext cx="2137680" cy="1131120"/>
+          <a:ext cx="2137320" cy="1130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,9 +1169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1181,7 +1185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033960" y="7135560"/>
-          <a:ext cx="1573560" cy="953640"/>
+          <a:ext cx="1573200" cy="953280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,9 +1206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1214,7 +1218,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2975040" y="7066440"/>
-          <a:ext cx="2426400" cy="1131120"/>
+          <a:ext cx="2426040" cy="1130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,9 +1256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590040</xdr:colOff>
+      <xdr:colOff>589680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,7 +1272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247200" y="7136280"/>
-          <a:ext cx="1531800" cy="922320"/>
+          <a:ext cx="1531440" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,9 +1293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734400</xdr:colOff>
+      <xdr:colOff>734040</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1305,7 +1309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="7614720"/>
-          <a:ext cx="591480" cy="527400"/>
+          <a:ext cx="591120" cy="527040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,9 +1330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>450000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1338,7 +1342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="7053120"/>
-          <a:ext cx="2138760" cy="1131120"/>
+          <a:ext cx="2138400" cy="1130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,9 +1380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1392,7 +1396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="7173000"/>
-          <a:ext cx="1654560" cy="1007640"/>
+          <a:ext cx="1654200" cy="1007280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,9 +1417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1429,7 +1433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9001080" y="7188480"/>
-          <a:ext cx="965880" cy="628920"/>
+          <a:ext cx="965520" cy="628560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1450,9 +1454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>467280</xdr:colOff>
+      <xdr:colOff>466920</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>295920</xdr:rowOff>
+      <xdr:rowOff>295560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1462,7 +1466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178720" y="7062840"/>
-          <a:ext cx="313920" cy="362160"/>
+          <a:ext cx="313560" cy="361800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,9 +1523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279720</xdr:colOff>
+      <xdr:colOff>279360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309960</xdr:rowOff>
+      <xdr:rowOff>309600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1531,7 +1535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="7057080"/>
-          <a:ext cx="600840" cy="381960"/>
+          <a:ext cx="600480" cy="381600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,9 +1592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
+      <xdr:colOff>424080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1600,7 +1604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="7076160"/>
-          <a:ext cx="333000" cy="369720"/>
+          <a:ext cx="332640" cy="369360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1656,15 +1660,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>325080</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>675000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>309960</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>309600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1673,8 +1677,867 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="12470400" y="7102800"/>
+          <a:ext cx="349920" cy="335880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95760</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>309600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4809960" y="7051320"/>
+          <a:ext cx="611280" cy="387360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>830520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>696600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10702800" y="7068600"/>
+          <a:ext cx="2139120" cy="1130760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Gráfico 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11101320" y="7142400"/>
+          <a:ext cx="1374480" cy="1007280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="125640" y="7057080"/>
+          <a:ext cx="2386800" cy="1130760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1511640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Gráfico 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474840" y="7157520"/>
+          <a:ext cx="1036800" cy="921960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772240" y="7051320"/>
+          <a:ext cx="2137320" cy="1130760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>708480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Gráfico 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6033960" y="7135560"/>
+          <a:ext cx="1573200" cy="953280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>949680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>75600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2975040" y="7066440"/>
+          <a:ext cx="2426040" cy="1130760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1221840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Gráfico 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3247200" y="7136280"/>
+          <a:ext cx="1531440" cy="921960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>734040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Gráfico 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4331880" y="7614720"/>
+          <a:ext cx="591120" cy="527040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="7053120"/>
+          <a:ext cx="2138400" cy="1130760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Gráfico 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293680" y="7173000"/>
+          <a:ext cx="1654200" cy="1007280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Gráfico 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001080" y="7188480"/>
+          <a:ext cx="965520" cy="628560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>295560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178720" y="7062840"/>
+          <a:ext cx="313560" cy="361800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>815400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>309600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277760" y="7057080"/>
+          <a:ext cx="600480" cy="381600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>424080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963720" y="7076160"/>
+          <a:ext cx="332640" cy="369360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>309600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="12470040" y="5239800"/>
-          <a:ext cx="350280" cy="335880"/>
+          <a:ext cx="349920" cy="335520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,19 +2594,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>309960</xdr:rowOff>
+      <xdr:rowOff>309600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="5188320"/>
-          <a:ext cx="611280" cy="387360"/>
+          <a:ext cx="610920" cy="387000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1800,19 +2663,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696600</xdr:colOff>
+      <xdr:colOff>696240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="5205600"/>
-          <a:ext cx="2139120" cy="1130760"/>
+          <a:ext cx="2138760" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1850,13 +2713,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Gráfico 11" descr=""/>
+        <xdr:cNvPr id="37" name="Gráfico 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1866,7 +2729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11100960" y="5279040"/>
-          <a:ext cx="1374840" cy="1007640"/>
+          <a:ext cx="1374480" cy="1007280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,19 +2750,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>486720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="5194080"/>
-          <a:ext cx="2386800" cy="1130760"/>
+          <a:ext cx="2386440" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,13 +2800,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1512000</xdr:colOff>
+      <xdr:colOff>1511640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Gráfico 9" descr=""/>
+        <xdr:cNvPr id="39" name="Gráfico 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1953,7 +2816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="5294160"/>
-          <a:ext cx="1037160" cy="922320"/>
+          <a:ext cx="1036800" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1974,19 +2837,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5771880" y="5188320"/>
-          <a:ext cx="2138040" cy="1130760"/>
+          <a:ext cx="2137680" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,13 +2887,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Gráfico 13" descr=""/>
+        <xdr:cNvPr id="41" name="Gráfico 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2040,7 +2903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033600" y="5272200"/>
-          <a:ext cx="1573560" cy="953640"/>
+          <a:ext cx="1573200" cy="953280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2061,19 +2924,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2974680" y="5203440"/>
-          <a:ext cx="2426400" cy="1130760"/>
+          <a:ext cx="2426040" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2111,13 +2974,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Gráfico 14" descr=""/>
+        <xdr:cNvPr id="43" name="Gráfico 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2127,7 +2990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3246840" y="5272920"/>
-          <a:ext cx="1531800" cy="922320"/>
+          <a:ext cx="1531440" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2148,13 +3011,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734400</xdr:colOff>
+      <xdr:colOff>734040</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Gráfico 15" descr=""/>
+        <xdr:cNvPr id="44" name="Gráfico 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2164,7 +3027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="5751360"/>
-          <a:ext cx="591480" cy="527400"/>
+          <a:ext cx="591120" cy="527040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2185,19 +3048,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>450000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="5190120"/>
-          <a:ext cx="2138760" cy="1130760"/>
+          <a:ext cx="2138400" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2235,13 +3098,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Gráfico 16" descr=""/>
+        <xdr:cNvPr id="46" name="Gráfico 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2251,7 +3114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="5309640"/>
-          <a:ext cx="1654560" cy="1007640"/>
+          <a:ext cx="1654200" cy="1007280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,13 +3135,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Gráfico 17" descr=""/>
+        <xdr:cNvPr id="47" name="Gráfico 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2288,7 +3151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9000720" y="5325120"/>
-          <a:ext cx="965880" cy="628920"/>
+          <a:ext cx="965520" cy="628560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2309,19 +3172,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>295920</xdr:rowOff>
+      <xdr:rowOff>295560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178360" y="5199840"/>
-          <a:ext cx="313920" cy="361800"/>
+          <a:ext cx="313560" cy="361440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,19 +3241,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279720</xdr:colOff>
+      <xdr:colOff>279360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>309960</xdr:rowOff>
+      <xdr:rowOff>309600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="5194080"/>
-          <a:ext cx="600840" cy="381600"/>
+          <a:ext cx="600480" cy="381240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,19 +3310,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
+      <xdr:colOff>424080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="5213160"/>
-          <a:ext cx="333000" cy="369360"/>
+          <a:ext cx="332640" cy="369000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2510,7 +3373,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -2521,19 +3384,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>674640</xdr:colOff>
+      <xdr:colOff>674280</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>318240</xdr:rowOff>
+      <xdr:rowOff>317880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12469680" y="12236040"/>
-          <a:ext cx="350280" cy="352080"/>
+          <a:ext cx="349920" cy="351720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2590,19 +3453,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>310680</xdr:rowOff>
+      <xdr:rowOff>310320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="12184560"/>
-          <a:ext cx="610920" cy="396000"/>
+          <a:ext cx="610560" cy="395640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,19 +3522,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696240</xdr:colOff>
+      <xdr:colOff>695880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="12201840"/>
-          <a:ext cx="2138760" cy="1185840"/>
+          <a:ext cx="2138400" cy="1185480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,13 +3572,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Gráfico 11" descr=""/>
+        <xdr:cNvPr id="54" name="Gráfico 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2725,7 +3588,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11100600" y="12282840"/>
-          <a:ext cx="1374840" cy="1007640"/>
+          <a:ext cx="1374480" cy="1007280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,19 +3609,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>486720</xdr:colOff>
+      <xdr:colOff>486360</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="12190320"/>
-          <a:ext cx="2386440" cy="1185840"/>
+          <a:ext cx="2386080" cy="1185480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2796,13 +3659,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1512000</xdr:colOff>
+      <xdr:colOff>1511640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Gráfico 9" descr=""/>
+        <xdr:cNvPr id="56" name="Gráfico 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2812,7 +3675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="12297960"/>
-          <a:ext cx="1037160" cy="922320"/>
+          <a:ext cx="1036800" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,19 +3696,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5771520" y="12184560"/>
-          <a:ext cx="2138400" cy="1185840"/>
+          <a:ext cx="2138040" cy="1185480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,13 +3746,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Gráfico 13" descr=""/>
+        <xdr:cNvPr id="58" name="Gráfico 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2899,7 +3762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033240" y="12276000"/>
-          <a:ext cx="1573560" cy="953640"/>
+          <a:ext cx="1573200" cy="953280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,19 +3783,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2974320" y="12199680"/>
-          <a:ext cx="2426400" cy="1185840"/>
+          <a:ext cx="2426040" cy="1185480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2970,13 +3833,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588960</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Gráfico 14" descr=""/>
+        <xdr:cNvPr id="60" name="Gráfico 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2986,7 +3849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3246480" y="12276720"/>
-          <a:ext cx="1531800" cy="922320"/>
+          <a:ext cx="1531440" cy="921960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3007,13 +3870,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734400</xdr:colOff>
+      <xdr:colOff>734040</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Gráfico 15" descr=""/>
+        <xdr:cNvPr id="61" name="Gráfico 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3023,7 +3886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="12779640"/>
-          <a:ext cx="591480" cy="527400"/>
+          <a:ext cx="591120" cy="527040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,19 +3907,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>450000</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="12186360"/>
-          <a:ext cx="2138760" cy="1185840"/>
+          <a:ext cx="2138400" cy="1185480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3094,13 +3957,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Gráfico 16" descr=""/>
+        <xdr:cNvPr id="63" name="Gráfico 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3110,7 +3973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="12313440"/>
-          <a:ext cx="1654560" cy="1007640"/>
+          <a:ext cx="1654200" cy="1007280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,13 +3994,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Gráfico 17" descr=""/>
+        <xdr:cNvPr id="64" name="Gráfico 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3147,7 +4010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9000360" y="12328920"/>
-          <a:ext cx="965880" cy="628920"/>
+          <a:ext cx="965520" cy="628560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3168,19 +4031,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466560</xdr:colOff>
+      <xdr:colOff>466200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178000" y="12196080"/>
-          <a:ext cx="313920" cy="369360"/>
+          <a:ext cx="313560" cy="369000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3237,19 +4100,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279720</xdr:colOff>
+      <xdr:colOff>279360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>325800</xdr:rowOff>
+      <xdr:rowOff>325440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="12190320"/>
-          <a:ext cx="600840" cy="405360"/>
+          <a:ext cx="600480" cy="405000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3306,19 +4169,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
+      <xdr:colOff>424080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="12209400"/>
-          <a:ext cx="333000" cy="394200"/>
+          <a:ext cx="332640" cy="393840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3369,7 +4232,866 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>317520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12469320" y="14297040"/>
+          <a:ext cx="349920" cy="351720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>94680</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>309960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4809960" y="14245560"/>
+          <a:ext cx="610200" cy="395640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>830520</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10702800" y="14262840"/>
+          <a:ext cx="2138040" cy="1185480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>329400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Gráfico 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11100240" y="14343840"/>
+          <a:ext cx="1374480" cy="1007280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>486000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="125640" y="14251320"/>
+          <a:ext cx="2385720" cy="1185480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1511640</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Gráfico 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474840" y="14358960"/>
+          <a:ext cx="1036800" cy="921960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>445680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5771160" y="14245560"/>
+          <a:ext cx="2138400" cy="1185480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>707400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Gráfico 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032880" y="14337000"/>
+          <a:ext cx="1573200" cy="953280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>948600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2973960" y="14260680"/>
+          <a:ext cx="2426040" cy="1185480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1220760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Gráfico 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3246120" y="14337720"/>
+          <a:ext cx="1531440" cy="921960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>181800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>734040</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Gráfico 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4331880" y="14840640"/>
+          <a:ext cx="591120" cy="527040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="14247360"/>
+          <a:ext cx="2138400" cy="1185480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Gráfico 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293680" y="14374440"/>
+          <a:ext cx="1654200" cy="1007280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>264600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93240</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Gráfico 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9000000" y="14389920"/>
+          <a:ext cx="965520" cy="628560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>465840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>294840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2177640" y="14257080"/>
+          <a:ext cx="313560" cy="369000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>815400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279360</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>325080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277760" y="14251320"/>
+          <a:ext cx="600480" cy="405000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>424080</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963720" y="14270400"/>
+          <a:ext cx="332640" cy="393840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -3386,7 +5108,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="85" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3455,7 +5177,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="86" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3524,7 +5246,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="87" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3574,7 +5296,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Gráfico 11" descr=""/>
+        <xdr:cNvPr id="88" name="Gráfico 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3611,7 +5333,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="89" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3661,7 +5383,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Gráfico 9" descr=""/>
+        <xdr:cNvPr id="90" name="Gráfico 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3698,7 +5420,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="91" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3748,7 +5470,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Gráfico 13" descr=""/>
+        <xdr:cNvPr id="92" name="Gráfico 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3785,7 +5507,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1"/>
+        <xdr:cNvPr id="93" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3835,7 +5557,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Gráfico 14" descr=""/>
+        <xdr:cNvPr id="94" name="Gráfico 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3872,7 +5594,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Gráfico 15" descr=""/>
+        <xdr:cNvPr id="95" name="Gráfico 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3909,7 +5631,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1"/>
+        <xdr:cNvPr id="96" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3959,7 +5681,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Gráfico 16" descr=""/>
+        <xdr:cNvPr id="97" name="Gráfico 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3996,7 +5718,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Gráfico 17" descr=""/>
+        <xdr:cNvPr id="98" name="Gráfico 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4033,7 +5755,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1"/>
+        <xdr:cNvPr id="99" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4102,7 +5824,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1"/>
+        <xdr:cNvPr id="100" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4171,872 +5893,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1"/>
+        <xdr:cNvPr id="101" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="14270400"/>
           <a:ext cx="333000" cy="394200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>674640</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>318240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12469320" y="14297040"/>
-          <a:ext cx="350640" cy="352440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>310680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4809960" y="14245560"/>
-          <a:ext cx="610920" cy="396360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>830520</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>696240</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10702800" y="14262840"/>
-          <a:ext cx="2138760" cy="1186200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Gráfico 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11100240" y="14343840"/>
-          <a:ext cx="1375200" cy="1008000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>486720</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="125640" y="14251320"/>
-          <a:ext cx="2386440" cy="1186200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1512360</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Gráfico 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="474840" y="14358960"/>
-          <a:ext cx="1037520" cy="922680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>311400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5771160" y="14245560"/>
-          <a:ext cx="2139120" cy="1186200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Gráfico 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032880" y="14337000"/>
-          <a:ext cx="1573920" cy="954000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>948600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2973960" y="14260680"/>
-          <a:ext cx="2426760" cy="1186200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1220760</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Gráfico 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3246120" y="14337720"/>
-          <a:ext cx="1532160" cy="922680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>734760</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Gráfico 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4331880" y="14840640"/>
-          <a:ext cx="591840" cy="527760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8183880" y="14247360"/>
-          <a:ext cx="2139120" cy="1186200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Gráfico 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8293680" y="14374440"/>
-          <a:ext cx="1654920" cy="1008000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Gráfico 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9000000" y="14389920"/>
-          <a:ext cx="966240" cy="629280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466560</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2177640" y="14257080"/>
-          <a:ext cx="314280" cy="369720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>815400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>280080</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>325800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7277760" y="14251320"/>
-          <a:ext cx="601200" cy="405720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>424800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9963720" y="14270400"/>
-          <a:ext cx="333360" cy="394560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5094,8 +5957,8 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5184,7 +6047,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>43537</v>
+        <v>43540</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
@@ -5199,14 +6062,14 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="n">
-        <v>0.559027777777778</v>
+        <v>0.479166666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,75 +6091,71 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="11" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -5328,7 +6187,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -5342,7 +6201,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -5369,36 +6228,42 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="n">
         <f aca="false">SUM(C16:K16)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="33" t="n">
         <v>1</v>
       </c>
@@ -5411,32 +6276,34 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="n">
         <f aca="false">SUM(C17:K17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="33" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E18" s="33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="33" t="n">
-        <v>16</v>
-      </c>
-      <c r="H18" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="H18" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -5447,42 +6314,34 @@
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33" t="n">
         <f aca="false">SUM(C19:K19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
@@ -5490,24 +6349,20 @@
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="n">
         <f aca="false">SUM(C20:K20)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="33" t="n">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" s="33"/>
       <c r="G21" s="33" t="n">
         <v>1</v>
       </c>
@@ -5517,40 +6372,46 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="n">
         <f aca="false">SUM(C21:K21)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33" t="n">
+        <v>3</v>
+      </c>
       <c r="F22" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="G22" s="33" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="n">
         <f aca="false">SUM(C22:K22)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32"/>
+      <c r="A23" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="E23" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -5559,7 +6420,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33" t="n">
         <f aca="false">SUM(C23:K23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,42 +6442,42 @@
     </row>
     <row r="25" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="33" t="n">
         <f aca="false">SUM(C16:C24)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="33" t="n">
         <f aca="false">SUM(D16:D24)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E25" s="33" t="n">
         <f aca="false">SUM(E16:E24)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" s="33" t="n">
         <f aca="false">SUM(F16:F24)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G25" s="33" t="n">
         <f aca="false">SUM(G16:G24)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H25" s="33" t="n">
         <f aca="false">SUM(H16:H24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="33" t="n">
         <f aca="false">SUM(I16:I24)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33" t="n">
         <f aca="false">SUM(C25:K25)</f>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,6 +6846,899 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>43537</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16" t="n">
+        <v>0.559027777777778</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="K10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="F11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="n">
+        <f aca="false">SUM(C16:K16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33" t="n">
+        <f aca="false">SUM(C17:K17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33" t="n">
+        <f aca="false">SUM(C18:K18)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="n">
+        <f aca="false">SUM(C19:K19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="n">
+        <f aca="false">SUM(C20:K20)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33" t="n">
+        <f aca="false">SUM(C21:K21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33" t="n">
+        <f aca="false">SUM(C22:K22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33" t="n">
+        <f aca="false">SUM(C23:K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33" t="n">
+        <f aca="false">SUM(C24:K24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33" t="n">
+        <f aca="false">SUM(C16:C24)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="33" t="n">
+        <f aca="false">SUM(D16:D24)</f>
+        <v>16</v>
+      </c>
+      <c r="E25" s="33" t="n">
+        <f aca="false">SUM(E16:E24)</f>
+        <v>16</v>
+      </c>
+      <c r="F25" s="33" t="n">
+        <f aca="false">SUM(F16:F24)</f>
+        <v>15</v>
+      </c>
+      <c r="G25" s="33" t="n">
+        <f aca="false">SUM(G16:G24)</f>
+        <v>18</v>
+      </c>
+      <c r="H25" s="33" t="n">
+        <f aca="false">SUM(H16:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="33" t="n">
+        <f aca="false">SUM(I16:I24)</f>
+        <v>8</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33" t="n">
+        <f aca="false">SUM(C25:K25)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" s="35" customFormat="true" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" s="35" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="48"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="49"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A37:L39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -6122,39 +7876,39 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="n">
@@ -6162,7 +7916,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -6171,25 +7925,25 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -6221,7 +7975,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -6235,7 +7989,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -6262,12 +8016,12 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -6288,7 +8042,7 @@
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -6322,7 +8076,7 @@
     </row>
     <row r="19" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="33"/>
@@ -6689,7 +8443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6831,39 +8585,39 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="n">
@@ -6871,7 +8625,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -6880,23 +8634,23 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -6928,7 +8682,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -6942,7 +8696,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -6973,12 +8727,12 @@
         <v>9</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="n">
@@ -7009,7 +8763,7 @@
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -7102,7 +8856,7 @@
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -7350,7 +9104,7 @@
     </row>
     <row r="40" s="35" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="33"/>
@@ -7711,7 +9465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7781,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -7849,39 +9603,39 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="n">
@@ -7889,7 +9643,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -7898,23 +9652,23 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7946,7 +9700,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -7960,7 +9714,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -7991,12 +9745,12 @@
         <v>9</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="n">
@@ -8027,7 +9781,7 @@
     </row>
     <row r="17" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -8047,7 +9801,7 @@
     </row>
     <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -8071,7 +9825,7 @@
     </row>
     <row r="19" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -8091,7 +9845,7 @@
     </row>
     <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -8115,7 +9869,7 @@
     </row>
     <row r="21" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
@@ -8135,7 +9889,7 @@
     </row>
     <row r="22" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -8155,7 +9909,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -8483,7 +10237,7 @@
     </row>
     <row r="46" s="35" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -8844,7 +10598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -8974,68 +10728,68 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -9067,7 +10821,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -9081,7 +10835,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -9112,7 +10866,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9537,7 +11291,7 @@
     </row>
     <row r="46" s="35" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>

--- a/Hoja-patron-.xlsx
+++ b/Hoja-patron-.xlsx
@@ -8,12 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="marzo_16_2019_2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="marzo_13_2019" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="marzo_06_2019" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="marzo_01_2019" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="febrero_27_2019" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Hoja de registro BMS" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="marzo_20_2019" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="marzo_16_2019" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="marzo_13_2019" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="marzo_06_2019" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="marzo_01_2019" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="febrero_27_2019" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Hoja de registro BMS" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="58">
   <si>
     <t xml:space="preserve">SISTEMA DE MONITORIZACIÓN DE MARIPOSAS</t>
   </si>
@@ -60,16 +61,19 @@
     <t xml:space="preserve">TEMPERATURA INICIAL / FINAL</t>
   </si>
   <si>
+    <t xml:space="preserve">14,5 / 15,9 </t>
+  </si>
+  <si>
     <t xml:space="preserve">VEL. DEL VIENTO INICIAL / FINAL </t>
   </si>
   <si>
-    <t xml:space="preserve">2/2</t>
+    <t xml:space="preserve">3 / 3</t>
   </si>
   <si>
     <t xml:space="preserve">DIRECCIÓN DEL VIENTO INICIAL / FINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">O/O</t>
+    <t xml:space="preserve">S / S</t>
   </si>
   <si>
     <t xml:space="preserve">(⁰C)</t>
@@ -87,7 +91,7 @@
     <t xml:space="preserve">DIRECCIÓN DEL VIENTO MEDIA</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">ESCALA DE BEAUFORT: 0 - el humo asciende en vertical; 1 - el humo se mueve ligeramente; 2 - se siente el viento en la cara; 3 - las hojas de los árboles se mueven; 4 - se levanta el polvo y las pequeñas ramas de los árboles  se mueven; 5 - se balancean los árboles pequeños; 6 - las ramas grandes se mueven y los árboles se balancean</t>
@@ -133,6 +137,18 @@
   </si>
   <si>
     <t xml:space="preserve">  NOTAS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiempo soleado aunque fresco y con viento ligero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
     <t xml:space="preserve">Dia calido pero muy ventoso</t>
@@ -807,9 +823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -819,7 +835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12470400" y="7102800"/>
-          <a:ext cx="349920" cy="335880"/>
+          <a:ext cx="349560" cy="335520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -876,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -888,7 +904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="7051320"/>
-          <a:ext cx="611280" cy="387360"/>
+          <a:ext cx="610920" cy="387000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,9 +961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696600</xdr:colOff>
+      <xdr:colOff>696240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -957,7 +973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="7068600"/>
-          <a:ext cx="2139120" cy="1130760"/>
+          <a:ext cx="2138760" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,9 +1011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1011,7 +1027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11101320" y="7142400"/>
-          <a:ext cx="1374480" cy="1007280"/>
+          <a:ext cx="1374120" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,9 +1048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>486720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1044,7 +1060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="7057080"/>
-          <a:ext cx="2386800" cy="1130760"/>
+          <a:ext cx="2386440" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,9 +1098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1511640</xdr:colOff>
+      <xdr:colOff>1511280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1098,7 +1114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="7157520"/>
-          <a:ext cx="1036800" cy="921960"/>
+          <a:ext cx="1036440" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,9 +1135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>310320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1131,7 +1147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5772240" y="7051320"/>
-          <a:ext cx="2137320" cy="1130760"/>
+          <a:ext cx="2136960" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,9 +1185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,7 +1201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033960" y="7135560"/>
-          <a:ext cx="1573200" cy="953280"/>
+          <a:ext cx="1572840" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1218,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2975040" y="7066440"/>
-          <a:ext cx="2426040" cy="1130760"/>
+          <a:ext cx="2425680" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,9 +1272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1272,7 +1288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247200" y="7136280"/>
-          <a:ext cx="1531440" cy="921960"/>
+          <a:ext cx="1531080" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,9 +1309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734040</xdr:colOff>
+      <xdr:colOff>733680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1309,7 +1325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="7614720"/>
-          <a:ext cx="591120" cy="527040"/>
+          <a:ext cx="590760" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1330,9 +1346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1342,7 +1358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="7053120"/>
-          <a:ext cx="2138400" cy="1130760"/>
+          <a:ext cx="2138040" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,9 +1396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1396,7 +1412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="7173000"/>
-          <a:ext cx="1654200" cy="1007280"/>
+          <a:ext cx="1653840" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,9 +1433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1433,7 +1449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9001080" y="7188480"/>
-          <a:ext cx="965520" cy="628560"/>
+          <a:ext cx="965160" cy="628200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,9 +1470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1466,7 +1482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178720" y="7062840"/>
-          <a:ext cx="313560" cy="361800"/>
+          <a:ext cx="313200" cy="361440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,9 +1539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1535,7 +1551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="7057080"/>
-          <a:ext cx="600480" cy="381600"/>
+          <a:ext cx="600120" cy="381240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1592,9 +1608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1604,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="7076160"/>
-          <a:ext cx="332640" cy="369360"/>
+          <a:ext cx="332280" cy="369000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,9 +1682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1678,7 +1694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12470400" y="7102800"/>
-          <a:ext cx="349920" cy="335880"/>
+          <a:ext cx="349560" cy="335520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,9 +1751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1747,7 +1763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="7051320"/>
-          <a:ext cx="611280" cy="387360"/>
+          <a:ext cx="610920" cy="387000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,9 +1820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696600</xdr:colOff>
+      <xdr:colOff>696240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1816,7 +1832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="7068600"/>
-          <a:ext cx="2139120" cy="1130760"/>
+          <a:ext cx="2138760" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1854,9 +1870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1870,7 +1886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11101320" y="7142400"/>
-          <a:ext cx="1374480" cy="1007280"/>
+          <a:ext cx="1374120" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>486720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1903,7 +1919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="7057080"/>
-          <a:ext cx="2386800" cy="1130760"/>
+          <a:ext cx="2386440" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1941,9 +1957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1511640</xdr:colOff>
+      <xdr:colOff>1511280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1957,7 +1973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="7157520"/>
-          <a:ext cx="1036800" cy="921960"/>
+          <a:ext cx="1036440" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1978,9 +1994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>310320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1990,7 +2006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5772240" y="7051320"/>
-          <a:ext cx="2137320" cy="1130760"/>
+          <a:ext cx="2136960" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,9 +2044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2044,7 +2060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033960" y="7135560"/>
-          <a:ext cx="1573200" cy="953280"/>
+          <a:ext cx="1572840" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2065,9 +2081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2077,7 +2093,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2975040" y="7066440"/>
-          <a:ext cx="2426040" cy="1130760"/>
+          <a:ext cx="2425680" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2115,9 +2131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2131,7 +2147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247200" y="7136280"/>
-          <a:ext cx="1531440" cy="921960"/>
+          <a:ext cx="1531080" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734040</xdr:colOff>
+      <xdr:colOff>733680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2168,7 +2184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="7614720"/>
-          <a:ext cx="591120" cy="527040"/>
+          <a:ext cx="590760" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2201,7 +2217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="7053120"/>
-          <a:ext cx="2138400" cy="1130760"/>
+          <a:ext cx="2138040" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,9 +2255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2255,7 +2271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="7173000"/>
-          <a:ext cx="1654200" cy="1007280"/>
+          <a:ext cx="1653840" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2276,9 +2292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2292,7 +2308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9001080" y="7188480"/>
-          <a:ext cx="965520" cy="628560"/>
+          <a:ext cx="965160" cy="628200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,9 +2329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2325,7 +2341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178720" y="7062840"/>
-          <a:ext cx="313560" cy="361800"/>
+          <a:ext cx="313200" cy="361440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2382,9 +2398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2394,7 +2410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="7057080"/>
-          <a:ext cx="600480" cy="381600"/>
+          <a:ext cx="600120" cy="381240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2451,9 +2467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2463,7 +2479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="7076160"/>
-          <a:ext cx="332640" cy="369360"/>
+          <a:ext cx="332280" cy="369000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,15 +2535,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>325080</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>674640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2536,8 +2552,867 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="12470400" y="7102800"/>
+          <a:ext cx="349560" cy="335520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>309240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4809960" y="7051320"/>
+          <a:ext cx="610920" cy="387000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>830520</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>696240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10702800" y="7068600"/>
+          <a:ext cx="2138760" cy="1130400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Gráfico 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11101320" y="7142400"/>
+          <a:ext cx="1374120" cy="1006920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>486720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="125640" y="7057080"/>
+          <a:ext cx="2386440" cy="1130400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1511280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Gráfico 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474840" y="7157520"/>
+          <a:ext cx="1036440" cy="921600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772240" y="7051320"/>
+          <a:ext cx="2136960" cy="1130400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>708480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Gráfico 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6033960" y="7135560"/>
+          <a:ext cx="1572840" cy="952920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>949680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2975040" y="7066440"/>
+          <a:ext cx="2425680" cy="1130400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1221840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Gráfico 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3247200" y="7136280"/>
+          <a:ext cx="1531080" cy="921600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Gráfico 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4331880" y="7614720"/>
+          <a:ext cx="590760" cy="526680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="7053120"/>
+          <a:ext cx="2138040" cy="1130400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Gráfico 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293680" y="7173000"/>
+          <a:ext cx="1653840" cy="1006920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Gráfico 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001080" y="7188480"/>
+          <a:ext cx="965160" cy="628200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>295200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178720" y="7062840"/>
+          <a:ext cx="313200" cy="361440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>815400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>309240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277760" y="7057080"/>
+          <a:ext cx="600120" cy="381240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963720" y="7076160"/>
+          <a:ext cx="332280" cy="369000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>309240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="12470040" y="5239800"/>
-          <a:ext cx="349920" cy="335520"/>
+          <a:ext cx="349560" cy="335160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2594,19 +3469,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="5188320"/>
-          <a:ext cx="610920" cy="387000"/>
+          <a:ext cx="610560" cy="386640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2663,19 +3538,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696240</xdr:colOff>
+      <xdr:colOff>695880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="5205600"/>
-          <a:ext cx="2138760" cy="1130400"/>
+          <a:ext cx="2138400" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2713,13 +3588,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Gráfico 11" descr=""/>
+        <xdr:cNvPr id="54" name="Gráfico 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2729,7 +3604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11100960" y="5279040"/>
-          <a:ext cx="1374480" cy="1007280"/>
+          <a:ext cx="1374120" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2750,19 +3625,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>486720</xdr:colOff>
+      <xdr:colOff>486360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="5194080"/>
-          <a:ext cx="2386440" cy="1130400"/>
+          <a:ext cx="2386080" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2800,13 +3675,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1511640</xdr:colOff>
+      <xdr:colOff>1511280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Gráfico 9" descr=""/>
+        <xdr:cNvPr id="56" name="Gráfico 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2816,7 +3691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="5294160"/>
-          <a:ext cx="1036800" cy="921960"/>
+          <a:ext cx="1036440" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2837,19 +3712,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>310320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5771880" y="5188320"/>
-          <a:ext cx="2137680" cy="1130400"/>
+          <a:ext cx="2137320" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2887,13 +3762,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Gráfico 13" descr=""/>
+        <xdr:cNvPr id="58" name="Gráfico 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2903,7 +3778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033600" y="5272200"/>
-          <a:ext cx="1573200" cy="953280"/>
+          <a:ext cx="1572840" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2924,19 +3799,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2974680" y="5203440"/>
-          <a:ext cx="2426040" cy="1130400"/>
+          <a:ext cx="2425680" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2974,13 +3849,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Gráfico 14" descr=""/>
+        <xdr:cNvPr id="60" name="Gráfico 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2990,7 +3865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3246840" y="5272920"/>
-          <a:ext cx="1531440" cy="921960"/>
+          <a:ext cx="1531080" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3011,13 +3886,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Gráfico 15" descr=""/>
+        <xdr:cNvPr id="61" name="Gráfico 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3027,7 +3902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="5751360"/>
-          <a:ext cx="591120" cy="527040"/>
+          <a:ext cx="590760" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3048,19 +3923,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="5190120"/>
-          <a:ext cx="2138400" cy="1130400"/>
+          <a:ext cx="2138040" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3098,13 +3973,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Gráfico 16" descr=""/>
+        <xdr:cNvPr id="63" name="Gráfico 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3114,7 +3989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="5309640"/>
-          <a:ext cx="1654200" cy="1007280"/>
+          <a:ext cx="1653840" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3135,13 +4010,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Gráfico 17" descr=""/>
+        <xdr:cNvPr id="64" name="Gráfico 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3151,7 +4026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9000720" y="5325120"/>
-          <a:ext cx="965520" cy="628560"/>
+          <a:ext cx="965160" cy="628200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3172,19 +4047,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466560</xdr:colOff>
+      <xdr:colOff>466200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178360" y="5199840"/>
-          <a:ext cx="313560" cy="361440"/>
+          <a:ext cx="313200" cy="361080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,19 +4116,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>309600</xdr:rowOff>
+      <xdr:rowOff>309240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="5194080"/>
-          <a:ext cx="600480" cy="381240"/>
+          <a:ext cx="600120" cy="380880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3310,19 +4185,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="5213160"/>
-          <a:ext cx="332640" cy="369000"/>
+          <a:ext cx="332280" cy="368640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,7 +4248,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -3384,19 +4259,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>674280</xdr:colOff>
+      <xdr:colOff>673920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>317880</xdr:rowOff>
+      <xdr:rowOff>317520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="68" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12469680" y="12236040"/>
-          <a:ext cx="349920" cy="351720"/>
+          <a:ext cx="349560" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3453,19 +4328,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>310320</xdr:rowOff>
+      <xdr:rowOff>309960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="69" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4809960" y="12184560"/>
-          <a:ext cx="610560" cy="395640"/>
+          <a:ext cx="610200" cy="395280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3522,19 +4397,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>695880</xdr:colOff>
+      <xdr:colOff>695520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="70" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10702800" y="12201840"/>
-          <a:ext cx="2138400" cy="1185480"/>
+          <a:ext cx="2138040" cy="1185120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3572,13 +4447,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
+      <xdr:colOff>329400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Gráfico 11" descr=""/>
+        <xdr:cNvPr id="71" name="Gráfico 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3588,7 +4463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11100600" y="12282840"/>
-          <a:ext cx="1374480" cy="1007280"/>
+          <a:ext cx="1374120" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3609,19 +4484,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
+      <xdr:colOff>486000</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="72" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="125640" y="12190320"/>
-          <a:ext cx="2386080" cy="1185480"/>
+          <a:ext cx="2385720" cy="1185120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3659,13 +4534,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1511640</xdr:colOff>
+      <xdr:colOff>1511280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Gráfico 9" descr=""/>
+        <xdr:cNvPr id="73" name="Gráfico 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3675,7 +4550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="474840" y="12297960"/>
-          <a:ext cx="1036800" cy="921960"/>
+          <a:ext cx="1036440" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3696,19 +4571,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>310320</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="74" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5771520" y="12184560"/>
-          <a:ext cx="2138040" cy="1185480"/>
+          <a:ext cx="2137680" cy="1185120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3746,13 +4621,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Gráfico 13" descr=""/>
+        <xdr:cNvPr id="75" name="Gráfico 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3762,7 +4637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6033240" y="12276000"/>
-          <a:ext cx="1573200" cy="953280"/>
+          <a:ext cx="1572840" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3783,19 +4658,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1"/>
+        <xdr:cNvPr id="76" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2974320" y="12199680"/>
-          <a:ext cx="2426040" cy="1185480"/>
+          <a:ext cx="2425680" cy="1185120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3833,13 +4708,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>588960</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Gráfico 14" descr=""/>
+        <xdr:cNvPr id="77" name="Gráfico 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3849,7 +4724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3246480" y="12276720"/>
-          <a:ext cx="1531440" cy="921960"/>
+          <a:ext cx="1531080" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3870,13 +4745,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734040</xdr:colOff>
+      <xdr:colOff>733680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Gráfico 15" descr=""/>
+        <xdr:cNvPr id="78" name="Gráfico 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3886,7 +4761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4331880" y="12779640"/>
-          <a:ext cx="591120" cy="527040"/>
+          <a:ext cx="590760" cy="526680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,19 +4782,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1"/>
+        <xdr:cNvPr id="79" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8183880" y="12186360"/>
-          <a:ext cx="2138400" cy="1185480"/>
+          <a:ext cx="2138040" cy="1185120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3957,13 +4832,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Gráfico 16" descr=""/>
+        <xdr:cNvPr id="80" name="Gráfico 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3973,7 +4848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8293680" y="12313440"/>
-          <a:ext cx="1654200" cy="1007280"/>
+          <a:ext cx="1653840" cy="1006920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3994,13 +4869,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Gráfico 17" descr=""/>
+        <xdr:cNvPr id="81" name="Gráfico 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4010,7 +4885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9000360" y="12328920"/>
-          <a:ext cx="965520" cy="628560"/>
+          <a:ext cx="965160" cy="628200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4031,19 +4906,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466200</xdr:colOff>
+      <xdr:colOff>465840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>295200</xdr:rowOff>
+      <xdr:rowOff>294840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1"/>
+        <xdr:cNvPr id="82" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2178000" y="12196080"/>
-          <a:ext cx="313560" cy="369000"/>
+          <a:ext cx="313200" cy="368640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4100,19 +4975,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>325440</xdr:rowOff>
+      <xdr:rowOff>325080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1"/>
+        <xdr:cNvPr id="83" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7277760" y="12190320"/>
-          <a:ext cx="600480" cy="405000"/>
+          <a:ext cx="600120" cy="404640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4169,19 +5044,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424080</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1"/>
+        <xdr:cNvPr id="84" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="12209400"/>
-          <a:ext cx="332640" cy="393840"/>
+          <a:ext cx="332280" cy="393480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4232,7 +5107,866 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673560</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>317160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12469320" y="14297040"/>
+          <a:ext cx="349560" cy="351360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>621000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>94320</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>309600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4809960" y="14245560"/>
+          <a:ext cx="609840" cy="395280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>830520</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10702800" y="14262840"/>
+          <a:ext cx="2137680" cy="1185120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>329040</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Gráfico 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11100240" y="14343840"/>
+          <a:ext cx="1374120" cy="1006920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="125640" y="14251320"/>
+          <a:ext cx="2385360" cy="1185120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1511280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Gráfico 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474840" y="14358960"/>
+          <a:ext cx="1036440" cy="921600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>445680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5771160" y="14245560"/>
+          <a:ext cx="2138040" cy="1185120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>707400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Gráfico 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032880" y="14337000"/>
+          <a:ext cx="1572840" cy="952920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>948600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2973960" y="14260680"/>
+          <a:ext cx="2425680" cy="1185120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1220760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Gráfico 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3246120" y="14337720"/>
+          <a:ext cx="1531080" cy="921600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>181800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Gráfico 15" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4331880" y="14840640"/>
+          <a:ext cx="590760" cy="526680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="14247360"/>
+          <a:ext cx="2138040" cy="1185120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Gráfico 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293680" y="14374440"/>
+          <a:ext cx="1653840" cy="1006920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>264600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Gráfico 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9000000" y="14389920"/>
+          <a:ext cx="965160" cy="628200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>465480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>294480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2177640" y="14257080"/>
+          <a:ext cx="313200" cy="368640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>815400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>324720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277760" y="14251320"/>
+          <a:ext cx="600120" cy="404640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423720</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963720" y="14270400"/>
+          <a:ext cx="332280" cy="393480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -4249,7 +5983,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1"/>
+        <xdr:cNvPr id="102" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4318,7 +6052,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1"/>
+        <xdr:cNvPr id="103" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4387,7 +6121,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1"/>
+        <xdr:cNvPr id="104" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4437,7 +6171,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Gráfico 11" descr=""/>
+        <xdr:cNvPr id="105" name="Gráfico 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4474,7 +6208,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1"/>
+        <xdr:cNvPr id="106" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4524,7 +6258,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Gráfico 9" descr=""/>
+        <xdr:cNvPr id="107" name="Gráfico 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4561,7 +6295,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1"/>
+        <xdr:cNvPr id="108" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4611,7 +6345,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Gráfico 13" descr=""/>
+        <xdr:cNvPr id="109" name="Gráfico 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4648,7 +6382,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1"/>
+        <xdr:cNvPr id="110" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4698,7 +6432,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Gráfico 14" descr=""/>
+        <xdr:cNvPr id="111" name="Gráfico 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4735,7 +6469,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Gráfico 15" descr=""/>
+        <xdr:cNvPr id="112" name="Gráfico 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4772,7 +6506,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1"/>
+        <xdr:cNvPr id="113" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4822,7 +6556,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Gráfico 16" descr=""/>
+        <xdr:cNvPr id="114" name="Gráfico 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4859,7 +6593,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Gráfico 17" descr=""/>
+        <xdr:cNvPr id="115" name="Gráfico 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4896,7 +6630,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1"/>
+        <xdr:cNvPr id="116" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4965,7 +6699,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1"/>
+        <xdr:cNvPr id="117" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5034,872 +6768,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1"/>
+        <xdr:cNvPr id="118" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9963720" y="14270400"/>
           <a:ext cx="332640" cy="393840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>674280</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>317880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12469320" y="14297040"/>
-          <a:ext cx="350280" cy="352080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>310320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4809960" y="14245560"/>
-          <a:ext cx="610560" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>830520</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695880</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10702800" y="14262840"/>
-          <a:ext cx="2138400" cy="1185840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Gráfico 11" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11100240" y="14343840"/>
-          <a:ext cx="1374840" cy="1007640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="125640" y="14251320"/>
-          <a:ext cx="2386080" cy="1185840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1512000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Gráfico 9" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="474840" y="14358960"/>
-          <a:ext cx="1037160" cy="922320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5771160" y="14245560"/>
-          <a:ext cx="2138760" cy="1185840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Gráfico 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032880" y="14337000"/>
-          <a:ext cx="1573560" cy="953640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>948600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2973960" y="14260680"/>
-          <a:ext cx="2426400" cy="1185840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1220760</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>588960</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Gráfico 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3246120" y="14337720"/>
-          <a:ext cx="1531800" cy="922320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>734400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Gráfico 15" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4331880" y="14840640"/>
-          <a:ext cx="591480" cy="527400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8183880" y="14247360"/>
-          <a:ext cx="2138760" cy="1185840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Gráfico 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8293680" y="14374440"/>
-          <a:ext cx="1654560" cy="1007640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Gráfico 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9000000" y="14389920"/>
-          <a:ext cx="965880" cy="628920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>295200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2177640" y="14257080"/>
-          <a:ext cx="313920" cy="369360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>815400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279720</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>325440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7277760" y="14251320"/>
-          <a:ext cx="600840" cy="405360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="es-ES" sz="2000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9963720" y="14270400"/>
-          <a:ext cx="333000" cy="394200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5957,8 +6832,8 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6047,14 +6922,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>43540</v>
+        <v>43544</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -6062,14 +6937,14 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="n">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="n">
-        <v>0.479166666666667</v>
+        <v>0.553472222222222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,71 +6966,75 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11" t="n">
+        <v>15.2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -6187,7 +7066,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -6201,7 +7080,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -6228,45 +7107,43 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="n">
+      <c r="D16" s="33" t="n">
         <v>2</v>
       </c>
+      <c r="E16" s="33"/>
       <c r="F16" s="33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="n">
         <f aca="false">SUM(C16:K16)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -6276,71 +7153,73 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="n">
         <f aca="false">SUM(C17:K17)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="33" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E18" s="33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G18" s="33" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="n">
         <f aca="false">SUM(C18:K18)</f>
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="33" t="n">
+        <v>3</v>
+      </c>
       <c r="H19" s="33"/>
-      <c r="I19" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33" t="n">
         <f aca="false">SUM(C19:K19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
@@ -6349,47 +7228,41 @@
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="n">
         <f aca="false">SUM(C20:K20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="n">
         <f aca="false">SUM(C21:K21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="33" t="n">
-        <v>2</v>
-      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33" t="n">
@@ -6399,18 +7272,20 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="n">
         <f aca="false">SUM(C22:K22)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -6420,7 +7295,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33" t="n">
         <f aca="false">SUM(C23:K23)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,28 +7317,28 @@
     </row>
     <row r="25" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="33" t="n">
         <f aca="false">SUM(C16:C24)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" s="33" t="n">
         <f aca="false">SUM(D16:D24)</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E25" s="33" t="n">
         <f aca="false">SUM(E16:E24)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F25" s="33" t="n">
         <f aca="false">SUM(F16:F24)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G25" s="33" t="n">
         <f aca="false">SUM(G16:G24)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H25" s="33" t="n">
         <f aca="false">SUM(H16:H24)</f>
@@ -6471,13 +7346,13 @@
       </c>
       <c r="I25" s="33" t="n">
         <f aca="false">SUM(I16:I24)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33" t="n">
         <f aca="false">SUM(C25:K25)</f>
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,12 +7382,12 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" s="35" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="n">
@@ -6642,7 +7517,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="45"/>
@@ -6658,7 +7533,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -6848,8 +7723,8 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6938,7 +7813,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>43537</v>
+        <v>43540</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
@@ -6953,14 +7828,14 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="n">
-        <v>0.559027777777778</v>
+        <v>0.479166666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,12 +7857,10 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -6995,62 +7868,60 @@
         <v>38</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="11" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7082,7 +7953,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -7096,7 +7967,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -7123,36 +7994,42 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="n">
         <f aca="false">SUM(C16:K16)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="33" t="n">
         <v>1</v>
       </c>
@@ -7165,32 +8042,34 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="n">
         <f aca="false">SUM(C17:K17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="33" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E18" s="33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="33" t="n">
-        <v>16</v>
-      </c>
-      <c r="H18" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="H18" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -7201,42 +8080,34 @@
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33" t="n">
         <f aca="false">SUM(C19:K19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
@@ -7244,24 +8115,20 @@
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="n">
         <f aca="false">SUM(C20:K20)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="33" t="n">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="33" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" s="33"/>
       <c r="G21" s="33" t="n">
         <v>1</v>
       </c>
@@ -7271,40 +8138,46 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="n">
         <f aca="false">SUM(C21:K21)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33" t="n">
+        <v>3</v>
+      </c>
       <c r="F22" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="G22" s="33" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="n">
         <f aca="false">SUM(C22:K22)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32"/>
+      <c r="A23" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="E23" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -7313,7 +8186,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33" t="n">
         <f aca="false">SUM(C23:K23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,42 +8208,42 @@
     </row>
     <row r="25" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="33" t="n">
         <f aca="false">SUM(C16:C24)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="33" t="n">
         <f aca="false">SUM(D16:D24)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E25" s="33" t="n">
         <f aca="false">SUM(E16:E24)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" s="33" t="n">
         <f aca="false">SUM(F16:F24)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G25" s="33" t="n">
         <f aca="false">SUM(G16:G24)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H25" s="33" t="n">
         <f aca="false">SUM(H16:H24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="33" t="n">
         <f aca="false">SUM(I16:I24)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33" t="n">
         <f aca="false">SUM(C25:K25)</f>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,12 +8273,12 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" s="35" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="n">
@@ -7535,7 +8408,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="45"/>
@@ -7551,7 +8424,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="47" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -7739,6 +8612,899 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>43537</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16" t="n">
+        <v>0.559027777777778</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="K10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="F11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33" t="n">
+        <f aca="false">SUM(C16:K16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33" t="n">
+        <f aca="false">SUM(C17:K17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33" t="n">
+        <f aca="false">SUM(C18:K18)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="n">
+        <f aca="false">SUM(C19:K19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="n">
+        <f aca="false">SUM(C20:K20)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33" t="n">
+        <f aca="false">SUM(C21:K21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33" t="n">
+        <f aca="false">SUM(C22:K22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33" t="n">
+        <f aca="false">SUM(C23:K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33" t="n">
+        <f aca="false">SUM(C24:K24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33" t="n">
+        <f aca="false">SUM(C16:C24)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="33" t="n">
+        <f aca="false">SUM(D16:D24)</f>
+        <v>16</v>
+      </c>
+      <c r="E25" s="33" t="n">
+        <f aca="false">SUM(E16:E24)</f>
+        <v>16</v>
+      </c>
+      <c r="F25" s="33" t="n">
+        <f aca="false">SUM(F16:F24)</f>
+        <v>15</v>
+      </c>
+      <c r="G25" s="33" t="n">
+        <f aca="false">SUM(G16:G24)</f>
+        <v>18</v>
+      </c>
+      <c r="H25" s="33" t="n">
+        <f aca="false">SUM(H16:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="33" t="n">
+        <f aca="false">SUM(I16:I24)</f>
+        <v>8</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33" t="n">
+        <f aca="false">SUM(C25:K25)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" s="35" customFormat="true" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" s="35" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="48"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="49"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A37:L39"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -7876,39 +9642,39 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="n">
@@ -7916,7 +9682,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -7925,25 +9691,25 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -7975,7 +9741,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -7989,7 +9755,7 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -8016,12 +9782,12 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -8042,7 +9808,7 @@
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -8076,7 +9842,7 @@
     </row>
     <row r="19" s="35" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="33"/>
@@ -8119,12 +9885,12 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" s="35" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="40" t="n">
@@ -8254,7 +10020,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="45"/>
@@ -8443,7 +10209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8585,39 +10351,39 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="n">
@@ -8625,7 +10391,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -8634,23 +10400,23 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -8682,7 +10448,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -8696,7 +10462,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -8727,12 +10493,12 @@
         <v>9</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="n">
@@ -8763,7 +10529,7 @@
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -8856,7 +10622,7 @@
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -9104,7 +10870,7 @@
     </row>
     <row r="40" s="35" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="33"/>
@@ -9134,12 +10900,12 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" s="35" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="40"/>
@@ -9253,7 +11019,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" s="44"/>
       <c r="C50" s="45"/>
@@ -9465,7 +11231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9535,7 +11301,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -9603,39 +11369,39 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="n">
@@ -9643,7 +11409,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -9652,23 +11418,23 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -9700,7 +11466,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -9714,7 +11480,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -9745,12 +11511,12 @@
         <v>9</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33" t="n">
@@ -9781,7 +11547,7 @@
     </row>
     <row r="17" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -9801,7 +11567,7 @@
     </row>
     <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -9825,7 +11591,7 @@
     </row>
     <row r="19" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -9845,7 +11611,7 @@
     </row>
     <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -9869,7 +11635,7 @@
     </row>
     <row r="21" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
@@ -9889,7 +11655,7 @@
     </row>
     <row r="22" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -9909,7 +11675,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -10237,7 +12003,7 @@
     </row>
     <row r="46" s="35" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -10267,12 +12033,12 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" s="35" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="40"/>
@@ -10386,7 +12152,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="45"/>
@@ -10598,7 +12364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -10728,68 +12494,68 @@
         <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="18"/>
       <c r="L8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="25"/>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25"/>
       <c r="F11" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -10821,7 +12587,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -10835,7 +12601,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="n">
@@ -10866,7 +12632,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11291,7 +13057,7 @@
     </row>
     <row r="46" s="35" customFormat="true" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -11321,12 +13087,12 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" s="35" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="40"/>
@@ -11440,7 +13206,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="45"/>
